--- a/output.xlsx
+++ b/output.xlsx
@@ -582,11 +582,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Botman</t>
+          <t>Alba Redondo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -608,17 +608,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Liga F</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Newcastle Utd</t>
+          <t>Levante UD</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -634,23 +634,23 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Giroud</t>
+          <t>González</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -664,15 +664,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>LW</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -698,23 +698,23 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Edwards</t>
+          <t>Jensen</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Liga Portugal</t>
+          <t>Liga F</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -762,13 +762,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -902,7 +902,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Malacia</t>
+          <t>Reguilón</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -915,7 +915,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -954,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Loftus-Cheek</t>
+          <t>Chalobah</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -984,7 +984,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CDM</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -997,12 +997,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Serie A TIM</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -1018,23 +1018,23 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Walace</t>
+          <t>Ferri</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Serie A TIM</t>
+          <t>Ligue 1 Uber Eats</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -1082,23 +1082,23 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sacko</t>
+          <t>Anna Torrodà</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>CDM</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1120,17 +1120,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Ligue 1 Uber Eats</t>
+          <t>Liga F</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Levante UD</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -1146,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Maurício</t>
+          <t>Lascelles</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Liga Portugal</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Portimonense SC</t>
+          <t>Newcastle Utd</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -1213,10 +1213,10 @@
         <v>400</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
